--- a/development/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/development/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\2do\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C7ADD-0F9D-4C1C-B13E-DD85A07C83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>CoP</t>
   </si>
@@ -347,8 +341,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,7 +707,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -747,7 +741,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -782,10 +775,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -958,14 +950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
@@ -989,7 +981,7 @@
     <col min="28" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1">
       <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1022,7 +1014,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="26"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>39</v>
@@ -1101,7 +1093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1139,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1185,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1228,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1271,7 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1318,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1360,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1407,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1454,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1501,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1550,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1596,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1643,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1702,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1806,7 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1855,7 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1904,7 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1945,7 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +1990,7 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
@@ -2045,7 +2037,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
@@ -2092,7 +2084,7 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
@@ -2137,7 +2129,7 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
@@ -2188,7 +2180,7 @@
       </c>
       <c r="AB25" s="6"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2235,7 +2227,7 @@
       </c>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2272,7 @@
       </c>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
@@ -2316,7 +2308,7 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="14" t="s">
         <v>43</v>
       </c>
@@ -2350,7 +2342,7 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
@@ -2384,7 +2376,7 @@
       </c>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
@@ -2412,7 +2404,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2440,7 +2432,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="14" t="s">
         <v>47</v>
       </c>
@@ -2464,7 +2456,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="14" t="s">
         <v>48</v>
       </c>
@@ -2492,7 +2484,7 @@
       </c>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
@@ -2522,7 +2514,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="14" t="s">
         <v>50</v>
       </c>
@@ -2550,7 +2542,7 @@
       </c>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
@@ -2578,7 +2570,7 @@
       </c>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="14" t="s">
         <v>52</v>
       </c>
@@ -2606,8 +2598,8 @@
       </c>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1">
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
@@ -2626,7 +2618,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2673,7 +2665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="22" t="s">
         <v>2</v>
       </c>
@@ -2697,7 +2689,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="22" t="s">
         <v>3</v>
       </c>
@@ -2721,7 +2713,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2737,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="22" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2761,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="22" t="s">
         <v>7</v>
       </c>
@@ -2793,7 +2785,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="22" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2809,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="22" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2833,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="22" t="s">
         <v>9</v>
       </c>
@@ -2865,7 +2857,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="22" t="s">
         <v>10</v>
       </c>
@@ -2891,7 +2883,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="22" t="s">
         <v>11</v>
       </c>
@@ -2915,7 +2907,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="22" t="s">
         <v>12</v>
       </c>
@@ -2939,7 +2931,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
@@ -2965,7 +2957,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="22" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +2989,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="22" t="s">
         <v>60</v>
       </c>
@@ -3027,7 +3019,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="22" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3041,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="22" t="s">
         <v>17</v>
       </c>
@@ -3071,7 +3063,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="22" t="s">
         <v>18</v>
       </c>
@@ -3093,7 +3085,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="22" t="s">
         <v>19</v>
       </c>
@@ -3119,7 +3111,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="22" t="s">
         <v>20</v>
       </c>
@@ -3143,7 +3135,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="22" t="s">
         <v>21</v>
       </c>
@@ -3167,7 +3159,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="22" t="s">
         <v>22</v>
       </c>
@@ -3191,7 +3183,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="22" t="s">
         <v>23</v>
       </c>
@@ -3215,7 +3207,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="22" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3231,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="22" t="s">
         <v>25</v>
       </c>
@@ -3263,7 +3255,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="22" t="s">
         <v>26</v>
       </c>
@@ -3289,7 +3281,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="14" t="s">
         <v>42</v>
       </c>
@@ -3310,13 +3302,15 @@
       <c r="N67" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O67" s="6"/>
+      <c r="O67" s="23" t="s">
+        <v>61</v>
+      </c>
       <c r="P67" s="6"/>
       <c r="Q67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="14" t="s">
         <v>43</v>
       </c>
@@ -3338,7 +3332,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="14" t="s">
         <v>44</v>
       </c>
@@ -3360,7 +3354,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="14" t="s">
         <v>45</v>
       </c>
@@ -3382,7 +3376,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="14" t="s">
         <v>46</v>
       </c>
@@ -3404,7 +3398,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="14" t="s">
         <v>47</v>
       </c>
@@ -3426,7 +3420,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="14" t="s">
         <v>48</v>
       </c>
@@ -3448,7 +3442,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="14" t="s">
         <v>49</v>
       </c>
@@ -3470,7 +3464,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="14" t="s">
         <v>50</v>
       </c>
@@ -3492,7 +3486,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="14" t="s">
         <v>51</v>
       </c>
@@ -3514,7 +3508,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="14" t="s">
         <v>52</v>
       </c>
@@ -3544,24 +3538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/development/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/development/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3330,7 +3330,9 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="P68" s="12">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="14" t="s">
@@ -3352,7 +3354,9 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
+      <c r="P69" s="12">
+        <v>35</v>
+      </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="14" t="s">
@@ -3413,7 +3417,9 @@
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="K72" s="15">
+        <v>10</v>
+      </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>

--- a/development/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
+++ b/development/Hmmm_Artifact_nom_nom_nom_ahhhhhhh.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\development\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76BCAE4-8511-4ACD-9114-7B0F24390210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -341,8 +347,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -707,7 +713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -741,6 +747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -775,9 +782,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,14 +958,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA48" sqref="AA48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
@@ -981,7 +989,7 @@
     <col min="28" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1014,7 +1022,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="26"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>39</v>
@@ -1093,7 +1101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1147,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1193,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1236,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1279,7 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +1326,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1368,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1415,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1462,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1509,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -1550,7 +1558,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1604,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1651,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1710,7 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1806,7 +1814,7 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1863,7 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
@@ -1904,7 +1912,7 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1953,7 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1998,7 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
@@ -2037,7 +2045,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
@@ -2084,7 +2092,7 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
@@ -2129,7 +2137,7 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
@@ -2180,7 +2188,7 @@
       </c>
       <c r="AB25" s="6"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2227,7 +2235,7 @@
       </c>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
@@ -2272,7 +2280,7 @@
       </c>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
@@ -2308,7 +2316,7 @@
       </c>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>43</v>
       </c>
@@ -2342,7 +2350,7 @@
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2384,7 @@
       </c>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
@@ -2404,7 +2412,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2432,7 +2440,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>47</v>
       </c>
@@ -2456,7 +2464,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2492,7 @@
       </c>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
@@ -2514,7 +2522,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>50</v>
       </c>
@@ -2542,7 +2550,7 @@
       </c>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
@@ -2570,7 +2578,7 @@
       </c>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>52</v>
       </c>
@@ -2598,8 +2606,8 @@
       </c>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1">
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2626,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2665,7 +2673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>2</v>
       </c>
@@ -2689,7 +2697,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>3</v>
       </c>
@@ -2713,7 +2721,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2745,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>5</v>
       </c>
@@ -2761,7 +2769,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2793,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>6</v>
       </c>
@@ -2809,7 +2817,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>8</v>
       </c>
@@ -2833,7 +2841,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2865,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2891,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>11</v>
       </c>
@@ -2907,7 +2915,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2939,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
@@ -2957,7 +2965,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>14</v>
       </c>
@@ -2989,7 +2997,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>60</v>
       </c>
@@ -3019,7 +3027,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>16</v>
       </c>
@@ -3041,7 +3049,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>17</v>
       </c>
@@ -3063,7 +3071,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>18</v>
       </c>
@@ -3085,7 +3093,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>19</v>
       </c>
@@ -3111,7 +3119,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>20</v>
       </c>
@@ -3135,7 +3143,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>21</v>
       </c>
@@ -3159,7 +3167,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>22</v>
       </c>
@@ -3183,7 +3191,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>23</v>
       </c>
@@ -3207,7 +3215,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +3239,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>25</v>
       </c>
@@ -3255,7 +3263,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>26</v>
       </c>
@@ -3281,7 +3289,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>42</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>43</v>
       </c>
@@ -3334,7 +3342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>44</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>45</v>
       </c>
@@ -3380,7 +3388,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3410,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>47</v>
       </c>
@@ -3426,7 +3434,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>48</v>
       </c>
@@ -3448,7 +3456,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>49</v>
       </c>
@@ -3470,7 +3478,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>50</v>
       </c>
@@ -3492,7 +3500,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>51</v>
       </c>
@@ -3514,7 +3522,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>52</v>
       </c>
@@ -3544,24 +3552,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
